--- a/python_report/state_files/MP.xlsx
+++ b/python_report/state_files/MP.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\state_08.04.2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\Python Excel Reporting\python_report\state_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="WR1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -39,7 +39,7 @@
     <t>Fax No.  :- 022-28202630</t>
   </si>
   <si>
-    <t>DAILY REPORT OF MP FOR DATED : 08-Apr-2018</t>
+    <t>DAILY REPORT OF MP FOR DATED : 06-Jun-2018</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -400,11 +400,11 @@
   </si>
   <si>
     <t>MORNING PEAK
-MW AT 07:30 hrs</t>
+MW AT 07:15 hrs</t>
   </si>
   <si>
     <t>Evening Peak
-MW AT 20:45 hrs</t>
+MW AT 21:45 hrs</t>
   </si>
   <si>
     <t>THERMAL</t>
@@ -903,13 +903,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1235,7 +1236,7 @@
   <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,10 +1357,10 @@
         <v>18</v>
       </c>
       <c r="G10">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,16 +1371,16 @@
         <v>210</v>
       </c>
       <c r="D11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E11">
-        <v>50.58</v>
+        <v>50.56</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11">
-        <v>1.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1390,19 +1391,19 @@
         <v>450</v>
       </c>
       <c r="D12">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E12">
-        <v>50.58</v>
+        <v>50.56</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12">
-        <v>1.8</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1413,19 +1414,19 @@
         <v>210</v>
       </c>
       <c r="D13">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E13">
-        <v>43.7</v>
+        <v>41.04</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13">
-        <v>11.02</v>
+        <v>3.34</v>
       </c>
       <c r="H13">
-        <v>175</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,10 +1437,10 @@
         <v>210</v>
       </c>
       <c r="D14">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E14">
-        <v>43.7</v>
+        <v>40.78</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -1459,10 +1460,10 @@
         <v>420</v>
       </c>
       <c r="D15">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E15">
-        <v>87.4</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
@@ -1482,10 +1483,10 @@
         <v>210</v>
       </c>
       <c r="D16">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E16">
-        <v>41.12</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -1505,19 +1506,19 @@
         <v>210</v>
       </c>
       <c r="D17">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E17">
-        <v>43.87</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
       </c>
       <c r="G17">
-        <v>0.9</v>
+        <v>0.06</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1528,16 +1529,16 @@
         <v>420</v>
       </c>
       <c r="D18">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E18">
-        <v>84.99</v>
+        <v>77.319999999999993</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
       <c r="G18">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -1551,19 +1552,19 @@
         <v>500</v>
       </c>
       <c r="D19">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E19">
-        <v>120.2</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
       </c>
       <c r="G19">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1574,19 +1575,19 @@
         <v>1340</v>
       </c>
       <c r="D20">
-        <v>1229</v>
+        <v>1215</v>
       </c>
       <c r="E20">
-        <v>292.58999999999997</v>
+        <v>244.14</v>
       </c>
       <c r="F20" t="s">
         <v>38</v>
       </c>
       <c r="G20">
-        <v>19.09</v>
+        <v>11.54</v>
       </c>
       <c r="H20">
-        <v>265</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1597,16 +1598,16 @@
         <v>200</v>
       </c>
       <c r="D21">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>38.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>40</v>
       </c>
       <c r="G21">
-        <v>18.170000000000002</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1617,19 +1618,19 @@
         <v>210</v>
       </c>
       <c r="D22">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E22">
-        <v>34.85</v>
+        <v>36.6</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
       </c>
       <c r="G22">
-        <v>2.95</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="H22">
-        <v>119.6</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1640,19 +1641,19 @@
         <v>410</v>
       </c>
       <c r="D23">
-        <v>330</v>
+        <v>145</v>
       </c>
       <c r="E23">
-        <v>73.099999999999994</v>
+        <v>36.6</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
       </c>
       <c r="G23">
-        <v>0.89</v>
+        <v>3.37</v>
       </c>
       <c r="H23">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1663,19 +1664,19 @@
         <v>210</v>
       </c>
       <c r="D24">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>37.340000000000003</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>46</v>
       </c>
       <c r="G24">
-        <v>67.569999999999993</v>
+        <v>70.23</v>
       </c>
       <c r="H24">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1686,19 +1687,19 @@
         <v>210</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>37.72</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
       <c r="G25">
-        <v>35.67</v>
+        <v>206.16</v>
       </c>
       <c r="H25">
-        <v>340</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1709,19 +1710,19 @@
         <v>420</v>
       </c>
       <c r="D26">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E26">
-        <v>37.340000000000003</v>
+        <v>37.72</v>
       </c>
       <c r="F26" t="s">
         <v>50</v>
       </c>
       <c r="G26">
-        <v>8.27</v>
+        <v>2.42</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1735,13 +1736,13 @@
         <v>256</v>
       </c>
       <c r="E27">
-        <v>60.44</v>
+        <v>50.41</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
       </c>
       <c r="G27">
-        <v>1679.84</v>
+        <v>1775.7</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1752,10 +1753,10 @@
         <v>250</v>
       </c>
       <c r="D28">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E28">
-        <v>57.5</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
         <v>54</v>
@@ -1769,10 +1770,10 @@
         <v>500</v>
       </c>
       <c r="D29">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="E29">
-        <v>117.94</v>
+        <v>100.41</v>
       </c>
       <c r="G29" t="s">
         <v>56</v>
@@ -1789,19 +1790,19 @@
         <v>1330</v>
       </c>
       <c r="D30">
-        <v>1004</v>
+        <v>822</v>
       </c>
       <c r="E30">
-        <v>228.38</v>
+        <v>174.73</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="2">
-        <v>0.3125</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="H30" s="2">
-        <v>0.86458333333333337</v>
+        <v>0.90625</v>
       </c>
       <c r="K30" t="s">
         <v>7</v>
@@ -1815,19 +1816,19 @@
         <v>600</v>
       </c>
       <c r="D31">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="E31">
-        <v>104.7</v>
+        <v>90.6</v>
       </c>
       <c r="F31" t="s">
         <v>61</v>
       </c>
       <c r="G31">
-        <v>7826</v>
+        <v>7715</v>
       </c>
       <c r="H31">
-        <v>7393</v>
+        <v>7370</v>
       </c>
       <c r="K31" t="s">
         <v>7</v>
@@ -1841,10 +1842,10 @@
         <v>600</v>
       </c>
       <c r="D32">
-        <v>569</v>
+        <v>500</v>
       </c>
       <c r="E32">
-        <v>112.2</v>
+        <v>89.1</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -1864,10 +1865,10 @@
         <v>1200</v>
       </c>
       <c r="D33">
-        <v>1113</v>
+        <v>698</v>
       </c>
       <c r="E33">
-        <v>216.9</v>
+        <v>179.7</v>
       </c>
       <c r="F33" t="s">
         <v>65</v>
@@ -1884,10 +1885,10 @@
         <v>66</v>
       </c>
       <c r="G34">
-        <v>50.03</v>
+        <v>50.05</v>
       </c>
       <c r="H34">
-        <v>50</v>
+        <v>49.97</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1898,10 +1899,10 @@
         <v>4320</v>
       </c>
       <c r="D35">
-        <v>3486</v>
+        <v>1073</v>
       </c>
       <c r="E35">
-        <v>788.45</v>
+        <v>649.13</v>
       </c>
       <c r="F35" t="s">
         <v>68</v>
@@ -1912,13 +1913,13 @@
         <v>69</v>
       </c>
       <c r="E36">
-        <v>61.33</v>
+        <v>56.73</v>
       </c>
       <c r="F36" t="s">
         <v>70</v>
       </c>
       <c r="G36">
-        <v>90059</v>
+        <v>80031</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1926,13 +1927,13 @@
         <v>71</v>
       </c>
       <c r="E37">
-        <v>3.24</v>
+        <v>-5.84</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
       </c>
       <c r="G37">
-        <v>134777</v>
+        <v>244932</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1940,13 +1941,13 @@
         <v>72</v>
       </c>
       <c r="E38">
-        <v>8.16</v>
+        <v>0.16</v>
       </c>
       <c r="F38" t="s">
         <v>73</v>
       </c>
       <c r="G38">
-        <v>41693</v>
+        <v>61557</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -1954,7 +1955,7 @@
         <v>74</v>
       </c>
       <c r="E39">
-        <v>15.53</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -1962,7 +1963,7 @@
         <v>75</v>
       </c>
       <c r="E40">
-        <v>745.39</v>
+        <v>797.48</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -1998,25 +1999,25 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>81.14</v>
+        <v>68.41</v>
       </c>
       <c r="B43">
-        <v>126.8</v>
+        <v>131.38999999999999</v>
       </c>
       <c r="C43">
-        <v>50.2</v>
+        <v>49.08</v>
       </c>
       <c r="D43">
-        <v>76.599999999999994</v>
+        <v>82.31</v>
       </c>
       <c r="E43">
-        <v>3870</v>
+        <v>3670</v>
       </c>
       <c r="F43">
         <v>4995</v>
       </c>
       <c r="G43">
-        <v>1125</v>
+        <v>1325</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2068,43 +2069,28 @@
         <v>95</v>
       </c>
       <c r="C56">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D56" s="3">
-        <v>0.29166666666666669</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E56">
-        <v>5</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0.375</v>
+        <v>18</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>4.76</v>
+        <v>3.12</v>
       </c>
       <c r="J56">
-        <v>15.53</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>96</v>
       </c>
-      <c r="C57">
-        <v>18</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E57">
-        <v>0.96</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="I57">
-        <v>0.43</v>
-      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2114,25 +2100,40 @@
         <v>95</v>
       </c>
       <c r="C58">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="3">
-        <v>0.29166666666666669</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="G58" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I58">
-        <v>11.2</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>96</v>
       </c>
+      <c r="C59">
+        <v>117</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E59">
+        <v>0.96</v>
+      </c>
+      <c r="G59" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I59">
+        <v>5.68</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -2142,28 +2143,43 @@
         <v>95</v>
       </c>
       <c r="C60">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D60" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="E60">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G60" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="I60">
-        <v>8.16</v>
+        <v>1.84</v>
       </c>
       <c r="J60">
-        <v>8.16</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>96</v>
       </c>
+      <c r="C61">
+        <v>28</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I61">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -2173,28 +2189,43 @@
         <v>95</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D62" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I62">
-        <v>3.24</v>
+        <v>0.24</v>
       </c>
       <c r="J62">
-        <v>3.24</v>
+        <v>-5.84</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>96</v>
       </c>
+      <c r="C63">
+        <v>50</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I63">
+        <v>6.08</v>
+      </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
@@ -2205,8 +2236,8 @@
       <c r="B101" t="s">
         <v>100</v>
       </c>
-      <c r="D101" s="4">
-        <v>43198</v>
+      <c r="D101" s="5">
+        <v>43257</v>
       </c>
       <c r="K101" t="s">
         <v>101</v>
@@ -2275,13 +2306,13 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>49.99</v>
+        <v>49.98</v>
       </c>
       <c r="D104">
-        <v>7334</v>
+        <v>8004</v>
       </c>
       <c r="E104">
-        <v>7076</v>
+        <v>7788</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2290,25 +2321,25 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I104" t="s">
         <v>119</v>
       </c>
       <c r="J104">
-        <v>7336</v>
+        <v>8009</v>
       </c>
       <c r="K104">
-        <v>7078</v>
+        <v>7792</v>
       </c>
       <c r="L104">
-        <v>-725</v>
+        <v>-802</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
       <c r="N104">
-        <v>75</v>
+        <v>879</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -2316,13 +2347,13 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>50</v>
+        <v>50.02</v>
       </c>
       <c r="D105">
-        <v>7053</v>
+        <v>7800</v>
       </c>
       <c r="E105">
-        <v>6799</v>
+        <v>7593</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2334,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>7053</v>
+        <v>7800</v>
       </c>
       <c r="K105">
-        <v>6799</v>
+        <v>7593</v>
       </c>
       <c r="L105">
-        <v>-715</v>
+        <v>-778</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
-        <v>50</v>
+        <v>934</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -2354,13 +2385,13 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>50.04</v>
+        <v>50</v>
       </c>
       <c r="D106">
-        <v>6935</v>
+        <v>7818</v>
       </c>
       <c r="E106">
-        <v>6685</v>
+        <v>7618</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2372,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>6935</v>
+        <v>7818</v>
       </c>
       <c r="K106">
-        <v>6685</v>
+        <v>7618</v>
       </c>
       <c r="L106">
-        <v>-699</v>
+        <v>-756</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="N106">
-        <v>51</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -2392,13 +2423,13 @@
         <v>4</v>
       </c>
       <c r="C107">
-        <v>50.05</v>
+        <v>50.02</v>
       </c>
       <c r="D107">
-        <v>6906</v>
+        <v>7726</v>
       </c>
       <c r="E107">
-        <v>6654</v>
+        <v>7530</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2410,19 +2441,19 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>6906</v>
+        <v>7726</v>
       </c>
       <c r="K107">
-        <v>6654</v>
+        <v>7530</v>
       </c>
       <c r="L107">
-        <v>-672</v>
+        <v>-750</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
-        <v>83</v>
+        <v>954</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -2430,13 +2461,13 @@
         <v>5</v>
       </c>
       <c r="C108">
-        <v>49.98</v>
+        <v>50.04</v>
       </c>
       <c r="D108">
-        <v>6869</v>
+        <v>7793</v>
       </c>
       <c r="E108">
-        <v>6617</v>
+        <v>7592</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2445,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>6873</v>
+        <v>7793</v>
       </c>
       <c r="K108">
-        <v>6621</v>
+        <v>7592</v>
       </c>
       <c r="L108">
-        <v>-707</v>
+        <v>-764</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108">
-        <v>266</v>
+        <v>956</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -2468,13 +2499,13 @@
         <v>6</v>
       </c>
       <c r="C109">
-        <v>50.04</v>
+        <v>50.03</v>
       </c>
       <c r="D109">
-        <v>7073</v>
+        <v>7559</v>
       </c>
       <c r="E109">
-        <v>6828</v>
+        <v>7366</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2486,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>7073</v>
+        <v>7559</v>
       </c>
       <c r="K109">
-        <v>6828</v>
+        <v>7366</v>
       </c>
       <c r="L109">
-        <v>-780</v>
+        <v>-852</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>281</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -2509,10 +2540,10 @@
         <v>50.02</v>
       </c>
       <c r="D110">
-        <v>7876</v>
+        <v>7793</v>
       </c>
       <c r="E110">
-        <v>7631</v>
+        <v>7613</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2524,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>7876</v>
+        <v>7793</v>
       </c>
       <c r="K110">
-        <v>7631</v>
+        <v>7613</v>
       </c>
       <c r="L110">
-        <v>-771</v>
+        <v>-817</v>
       </c>
       <c r="M110">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="N110">
-        <v>212</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -2547,10 +2578,10 @@
         <v>50.04</v>
       </c>
       <c r="D111">
-        <v>7942</v>
+        <v>7701</v>
       </c>
       <c r="E111">
-        <v>7696</v>
+        <v>7520</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2562,19 +2593,19 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>7942</v>
+        <v>7701</v>
       </c>
       <c r="K111">
-        <v>7696</v>
+        <v>7520</v>
       </c>
       <c r="L111">
-        <v>-755</v>
+        <v>-798</v>
       </c>
       <c r="M111">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="N111">
-        <v>207</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -2582,13 +2613,13 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>50</v>
+        <v>49.96</v>
       </c>
       <c r="D112">
-        <v>7743</v>
+        <v>7203</v>
       </c>
       <c r="E112">
-        <v>7507</v>
+        <v>7019</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2597,22 +2628,22 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J112">
-        <v>7743</v>
+        <v>7212</v>
       </c>
       <c r="K112">
-        <v>7507</v>
+        <v>7027</v>
       </c>
       <c r="L112">
-        <v>-763</v>
+        <v>-797</v>
       </c>
       <c r="M112">
-        <v>598</v>
+        <v>525</v>
       </c>
       <c r="N112">
-        <v>123</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
@@ -2620,13 +2651,13 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>50.01</v>
+        <v>49.95</v>
       </c>
       <c r="D113">
-        <v>7412</v>
+        <v>7175</v>
       </c>
       <c r="E113">
-        <v>7177</v>
+        <v>6988</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2635,22 +2666,22 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J113">
-        <v>7412</v>
+        <v>7186</v>
       </c>
       <c r="K113">
-        <v>7177</v>
+        <v>6998</v>
       </c>
       <c r="L113">
-        <v>-796</v>
+        <v>-833</v>
       </c>
       <c r="M113">
-        <v>819</v>
+        <v>642</v>
       </c>
       <c r="N113">
-        <v>73</v>
+        <v>995</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
@@ -2658,13 +2689,13 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>50</v>
+        <v>49.97</v>
       </c>
       <c r="D114">
-        <v>7104</v>
+        <v>7521</v>
       </c>
       <c r="E114">
-        <v>6868</v>
+        <v>7333</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2673,22 +2704,22 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J114">
-        <v>7104</v>
+        <v>7527</v>
       </c>
       <c r="K114">
-        <v>6868</v>
+        <v>7340</v>
       </c>
       <c r="L114">
-        <v>-828</v>
+        <v>-801</v>
       </c>
       <c r="M114">
-        <v>906</v>
+        <v>858</v>
       </c>
       <c r="N114">
-        <v>37</v>
+        <v>785</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
@@ -2696,13 +2727,13 @@
         <v>12</v>
       </c>
       <c r="C115">
-        <v>50.01</v>
+        <v>49.9</v>
       </c>
       <c r="D115">
-        <v>6553</v>
+        <v>7412</v>
       </c>
       <c r="E115">
-        <v>6318</v>
+        <v>7217</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2711,22 +2742,22 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J115">
-        <v>6553</v>
+        <v>7434</v>
       </c>
       <c r="K115">
-        <v>6318</v>
+        <v>7239</v>
       </c>
       <c r="L115">
-        <v>-855</v>
+        <v>-725</v>
       </c>
       <c r="M115">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="N115">
-        <v>47</v>
+        <v>679</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
@@ -2734,13 +2765,13 @@
         <v>13</v>
       </c>
       <c r="C116">
-        <v>49.99</v>
+        <v>50.02</v>
       </c>
       <c r="D116">
-        <v>6921</v>
+        <v>7956</v>
       </c>
       <c r="E116">
-        <v>6680</v>
+        <v>7737</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2749,22 +2780,22 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>6923</v>
+        <v>7956</v>
       </c>
       <c r="K116">
-        <v>6682</v>
+        <v>7737</v>
       </c>
       <c r="L116">
-        <v>-804</v>
+        <v>-719</v>
       </c>
       <c r="M116">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="N116">
-        <v>26</v>
+        <v>470</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
@@ -2772,13 +2803,13 @@
         <v>14</v>
       </c>
       <c r="C117">
-        <v>49.99</v>
+        <v>49.94</v>
       </c>
       <c r="D117">
-        <v>6890</v>
+        <v>8011</v>
       </c>
       <c r="E117">
-        <v>6647</v>
+        <v>7787</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2787,22 +2818,22 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J117">
-        <v>6892</v>
+        <v>8025</v>
       </c>
       <c r="K117">
-        <v>6649</v>
+        <v>7801</v>
       </c>
       <c r="L117">
-        <v>-799</v>
+        <v>-762</v>
       </c>
       <c r="M117">
-        <v>728</v>
+        <v>841</v>
       </c>
       <c r="N117">
-        <v>35</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
@@ -2810,13 +2841,13 @@
         <v>15</v>
       </c>
       <c r="C118">
-        <v>49.96</v>
+        <v>50.01</v>
       </c>
       <c r="D118">
-        <v>6917</v>
+        <v>8034</v>
       </c>
       <c r="E118">
-        <v>6667</v>
+        <v>7813</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2825,22 +2856,22 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>6925</v>
+        <v>8034</v>
       </c>
       <c r="K118">
-        <v>6675</v>
+        <v>7813</v>
       </c>
       <c r="L118">
-        <v>-798</v>
+        <v>-790</v>
       </c>
       <c r="M118">
-        <v>593</v>
+        <v>708</v>
       </c>
       <c r="N118">
-        <v>43</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
@@ -2851,10 +2882,10 @@
         <v>50.01</v>
       </c>
       <c r="D119">
-        <v>6893</v>
+        <v>7842</v>
       </c>
       <c r="E119">
-        <v>6635</v>
+        <v>7622</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2866,19 +2897,19 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>6893</v>
+        <v>7842</v>
       </c>
       <c r="K119">
-        <v>6635</v>
+        <v>7622</v>
       </c>
       <c r="L119">
-        <v>-813</v>
+        <v>-795</v>
       </c>
       <c r="M119">
-        <v>439</v>
+        <v>527</v>
       </c>
       <c r="N119">
-        <v>69</v>
+        <v>459</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
@@ -2886,13 +2917,13 @@
         <v>17</v>
       </c>
       <c r="C120">
-        <v>50.06</v>
+        <v>50.01</v>
       </c>
       <c r="D120">
-        <v>6743</v>
+        <v>7279</v>
       </c>
       <c r="E120">
-        <v>6500</v>
+        <v>7068</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2904,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>6743</v>
+        <v>7279</v>
       </c>
       <c r="K120">
-        <v>6500</v>
+        <v>7068</v>
       </c>
       <c r="L120">
-        <v>-734</v>
+        <v>-780</v>
       </c>
       <c r="M120">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="N120">
-        <v>216</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
@@ -2924,13 +2955,13 @@
         <v>18</v>
       </c>
       <c r="C121">
-        <v>50.01</v>
+        <v>50.03</v>
       </c>
       <c r="D121">
-        <v>6537</v>
+        <v>6488</v>
       </c>
       <c r="E121">
-        <v>6296</v>
+        <v>6293</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -2942,19 +2973,19 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>6537</v>
+        <v>6488</v>
       </c>
       <c r="K121">
-        <v>6296</v>
+        <v>6293</v>
       </c>
       <c r="L121">
-        <v>-678</v>
+        <v>-709</v>
       </c>
       <c r="M121">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="N121">
-        <v>204</v>
+        <v>906</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
@@ -2962,13 +2993,13 @@
         <v>19</v>
       </c>
       <c r="C122">
-        <v>49.95</v>
+        <v>49.94</v>
       </c>
       <c r="D122">
-        <v>7145</v>
+        <v>6709</v>
       </c>
       <c r="E122">
-        <v>6899</v>
+        <v>6511</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2977,22 +3008,22 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J122">
-        <v>7155</v>
+        <v>6721</v>
       </c>
       <c r="K122">
-        <v>6909</v>
+        <v>6523</v>
       </c>
       <c r="L122">
-        <v>-705</v>
+        <v>-583</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
       <c r="N122">
-        <v>238</v>
+        <v>655</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
@@ -3000,13 +3031,13 @@
         <v>20</v>
       </c>
       <c r="C123">
-        <v>50.01</v>
+        <v>49.86</v>
       </c>
       <c r="D123">
-        <v>7595</v>
+        <v>7442</v>
       </c>
       <c r="E123">
-        <v>7353</v>
+        <v>7222</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3015,22 +3046,22 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J123">
-        <v>7595</v>
+        <v>7472</v>
       </c>
       <c r="K123">
-        <v>7353</v>
+        <v>7252</v>
       </c>
       <c r="L123">
-        <v>-667</v>
+        <v>-607</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
       <c r="N123">
-        <v>189</v>
+        <v>655</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
@@ -3038,13 +3069,13 @@
         <v>21</v>
       </c>
       <c r="C124">
-        <v>49.99</v>
+        <v>49.87</v>
       </c>
       <c r="D124">
-        <v>7525</v>
+        <v>7554</v>
       </c>
       <c r="E124">
-        <v>7281</v>
+        <v>7329</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3053,22 +3084,22 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J124">
-        <v>7527</v>
+        <v>7583</v>
       </c>
       <c r="K124">
-        <v>7283</v>
+        <v>7358</v>
       </c>
       <c r="L124">
-        <v>-665</v>
+        <v>-631</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
       <c r="N124">
-        <v>164</v>
+        <v>719</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
@@ -3076,13 +3107,13 @@
         <v>22</v>
       </c>
       <c r="C125">
-        <v>49.97</v>
+        <v>49.91</v>
       </c>
       <c r="D125">
-        <v>7618</v>
+        <v>7566</v>
       </c>
       <c r="E125">
-        <v>7358</v>
+        <v>7342</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3091,22 +3122,22 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J125">
-        <v>7625</v>
+        <v>7586</v>
       </c>
       <c r="K125">
-        <v>7364</v>
+        <v>7362</v>
       </c>
       <c r="L125">
-        <v>-746</v>
+        <v>-676</v>
       </c>
       <c r="M125">
         <v>0</v>
       </c>
       <c r="N125">
-        <v>228</v>
+        <v>863</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
@@ -3114,13 +3145,13 @@
         <v>23</v>
       </c>
       <c r="C126">
-        <v>49.97</v>
+        <v>49.88</v>
       </c>
       <c r="D126">
-        <v>8326</v>
+        <v>7840</v>
       </c>
       <c r="E126">
-        <v>8065</v>
+        <v>7634</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3129,22 +3160,22 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J126">
-        <v>8333</v>
+        <v>7867</v>
       </c>
       <c r="K126">
-        <v>8073</v>
+        <v>7662</v>
       </c>
       <c r="L126">
-        <v>-741</v>
+        <v>-728</v>
       </c>
       <c r="M126">
         <v>0</v>
       </c>
       <c r="N126">
-        <v>295</v>
+        <v>997</v>
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
@@ -3152,13 +3183,13 @@
         <v>24</v>
       </c>
       <c r="C127">
-        <v>50.02</v>
+        <v>50.05</v>
       </c>
       <c r="D127">
-        <v>7947</v>
+        <v>7655</v>
       </c>
       <c r="E127">
-        <v>7687</v>
+        <v>7463</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3170,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>7947</v>
+        <v>7655</v>
       </c>
       <c r="K127">
-        <v>7687</v>
+        <v>7463</v>
       </c>
       <c r="L127">
         <v>-739</v>
@@ -3182,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>340</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="128" spans="2:14" ht="60" x14ac:dyDescent="0.25">
@@ -3190,13 +3221,13 @@
         <v>120</v>
       </c>
       <c r="C128">
-        <v>50.03</v>
+        <v>50.05</v>
       </c>
       <c r="D128">
-        <v>8071</v>
+        <v>7893</v>
       </c>
       <c r="E128">
-        <v>7826</v>
+        <v>7715</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3208,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>8071</v>
+        <v>7893</v>
       </c>
       <c r="K128">
-        <v>7582</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="129" spans="2:11" ht="60" x14ac:dyDescent="0.25">
@@ -3219,13 +3250,13 @@
         <v>121</v>
       </c>
       <c r="C129">
-        <v>50</v>
+        <v>49.97</v>
       </c>
       <c r="D129">
-        <v>7638</v>
+        <v>7595</v>
       </c>
       <c r="E129">
-        <v>7393</v>
+        <v>7370</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3237,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>7638</v>
+        <v>7595</v>
       </c>
       <c r="K129">
-        <v>7148</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
@@ -3259,10 +3290,10 @@
         <v>125</v>
       </c>
       <c r="C131">
-        <v>3486</v>
+        <v>2974</v>
       </c>
       <c r="D131">
-        <v>265</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
@@ -3270,10 +3301,10 @@
         <v>126</v>
       </c>
       <c r="C132">
-        <v>3044</v>
+        <v>2361</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K132" t="s">
         <v>86</v>
